--- a/Sheets/ExchangeSheet.xlsx
+++ b/Sheets/ExchangeSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,13 +60,16 @@
     <t>Заменил:</t>
   </si>
   <si>
-    <t xml:space="preserve">Накладная на замену оборудования </t>
+    <t>Накладная на замену оборудования</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -168,11 +171,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -198,6 +231,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G39"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D11" sqref="D11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,38 +582,26 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -567,158 +609,190 @@
       <c r="E12" s="7"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F22" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,14 +807,14 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -749,7 +823,7 @@
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -758,7 +832,7 @@
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -767,19 +841,61 @@
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
